--- a/tabular/extension/equine/eiav-refseqs.xlsx
+++ b/tabular/extension/equine/eiav-refseqs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/retrovirus/Lentivirus-GLUE/tabular/extension/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/retrovirus/Lentivirus-GLUE-EIAV/tabular/extension/equine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6934507F-DB21-C743-A52A-CB7C09F722C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7818F2A9-52DF-B243-8473-0F27B26B9CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20220" yWindow="11440" windowWidth="26440" windowHeight="15440" xr2:uid="{8A17B564-60DB-FE41-AABC-5E28301F4D87}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="97">
   <si>
     <t>sequenceID</t>
   </si>
@@ -52,12 +52,6 @@
     <t>subgenus</t>
   </si>
   <si>
-    <t>clade</t>
-  </si>
-  <si>
-    <t>subtype</t>
-  </si>
-  <si>
     <t>genotype</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>pubmed_id</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t>NK</t>
   </si>
   <si>
@@ -97,9 +88,6 @@
     <t>Equine</t>
   </si>
   <si>
-    <t>European</t>
-  </si>
-  <si>
     <t>Domestic horse</t>
   </si>
   <si>
@@ -110,13 +98,241 @@
   </si>
   <si>
     <t>Asian</t>
+  </si>
+  <si>
+    <t>AB008196</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>AB008197</t>
+  </si>
+  <si>
+    <t>GU385356</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>KM247554</t>
+  </si>
+  <si>
+    <t>European1</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>KM247555</t>
+  </si>
+  <si>
+    <t>MH580898</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>MH820163</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>MH820164</t>
+  </si>
+  <si>
+    <t>MH820165</t>
+  </si>
+  <si>
+    <t>MH820166</t>
+  </si>
+  <si>
+    <t>MN560971</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>MT338937</t>
+  </si>
+  <si>
+    <t>European2</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>MW924675</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>MW924676</t>
+  </si>
+  <si>
+    <t>MW924677</t>
+  </si>
+  <si>
+    <t>AF016316</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>AF028231</t>
+  </si>
+  <si>
+    <t>AF028232</t>
+  </si>
+  <si>
+    <t>AF247394</t>
+  </si>
+  <si>
+    <t>AF327878</t>
+  </si>
+  <si>
+    <t>GU385353</t>
+  </si>
+  <si>
+    <t>GU385354</t>
+  </si>
+  <si>
+    <t>GU385355</t>
+  </si>
+  <si>
+    <t>GU385357</t>
+  </si>
+  <si>
+    <t>GU385358</t>
+  </si>
+  <si>
+    <t>GU385359</t>
+  </si>
+  <si>
+    <t>GU385360</t>
+  </si>
+  <si>
+    <t>GU385361</t>
+  </si>
+  <si>
+    <t>GU385362</t>
+  </si>
+  <si>
+    <t>GU385363</t>
+  </si>
+  <si>
+    <t>GU385364</t>
+  </si>
+  <si>
+    <t>GU385365</t>
+  </si>
+  <si>
+    <t>HM141909</t>
+  </si>
+  <si>
+    <t>HM141910</t>
+  </si>
+  <si>
+    <t>HM141911</t>
+  </si>
+  <si>
+    <t>HM141912</t>
+  </si>
+  <si>
+    <t>HM141913</t>
+  </si>
+  <si>
+    <t>HM141914</t>
+  </si>
+  <si>
+    <t>HM141915</t>
+  </si>
+  <si>
+    <t>HM141916</t>
+  </si>
+  <si>
+    <t>HM141917</t>
+  </si>
+  <si>
+    <t>HM141918</t>
+  </si>
+  <si>
+    <t>HM141919</t>
+  </si>
+  <si>
+    <t>HM141920</t>
+  </si>
+  <si>
+    <t>HM141921</t>
+  </si>
+  <si>
+    <t>HM141922</t>
+  </si>
+  <si>
+    <t>HM141923</t>
+  </si>
+  <si>
+    <t>JX003263</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>JX480631</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>JX480633</t>
+  </si>
+  <si>
+    <t>JX480634</t>
+  </si>
+  <si>
+    <t>M16575</t>
+  </si>
+  <si>
+    <t>M87581</t>
+  </si>
+  <si>
+    <t>MH580896</t>
+  </si>
+  <si>
+    <t>MH580897</t>
+  </si>
+  <si>
+    <t>MK593462</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>MK593463</t>
+  </si>
+  <si>
+    <t>MN560970</t>
+  </si>
+  <si>
+    <t>NC_001450</t>
+  </si>
+  <si>
+    <t>ON615427</t>
+  </si>
+  <si>
+    <t>U01866</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,22 +346,6 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -164,7 +364,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,19 +381,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -214,9 +410,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -254,7 +450,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -360,7 +556,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -502,7 +698,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -510,15 +706,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB1CC0B-B711-5A41-A016-1CB245F92A28}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="A1:N3"/>
+      <selection activeCell="F20" sqref="A1:L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="10" width="10.83203125" style="3"/>
+    <col min="11" max="11" width="19.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,98 +756,2277 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>10930666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2">
+        <v>10930666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2">
+        <v>2012</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
+        <v>2009</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2">
+        <v>2008</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2">
+        <v>2008</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2">
+        <v>2016</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2">
+        <v>2015</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="2">
+        <v>32059508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2">
+        <v>2015</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2">
+        <v>2017</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2">
+        <v>2017</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2">
+        <v>2017</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="2">
+        <v>9445039</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="2">
+        <v>9420249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="2">
+        <v>11038386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="2">
+        <v>16932982</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="2">
+        <v>16932982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L48" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L49" s="2">
+        <v>21136127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2">
+        <v>2011</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L50" s="2">
+        <v>23100364</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2">
+        <v>2006</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L51" s="2">
+        <v>23175240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="B52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2">
+        <v>2006</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L52" s="2">
+        <v>23175240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2">
+        <v>2006</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L53" s="2">
+        <v>23175240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2">
+        <v>2006</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L54" s="2">
+        <v>23175240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="G55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="3" t="s">
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="4" t="s">
-        <v>15</v>
+      <c r="G56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L56" s="2">
+        <v>1318398</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2">
+        <v>1975</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2">
+        <v>2010</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2">
+        <v>2014</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L59" s="2">
+        <v>31493650</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2">
+        <v>2014</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L60" s="2">
+        <v>31493650</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2">
+        <v>2015</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L61" s="2">
+        <v>32059508</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2">
+        <v>2014</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L64" s="2">
+        <v>8113766</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/tabular/extension/equine/eiav-refseqs.xlsx
+++ b/tabular/extension/equine/eiav-refseqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/retrovirus/Lentivirus-GLUE-EIAV/tabular/extension/equine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7818F2A9-52DF-B243-8473-0F27B26B9CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E3E3C2-CA34-6646-9911-8E4F5059E2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20220" yWindow="11440" windowWidth="26440" windowHeight="15440" xr2:uid="{8A17B564-60DB-FE41-AABC-5E28301F4D87}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>isolate</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>American</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>AB008197</t>
   </si>
   <si>
@@ -326,6 +320,12 @@
   </si>
   <si>
     <t>U01866</t>
+  </si>
+  <si>
+    <t>collection_year</t>
+  </si>
+  <si>
+    <t>UK</t>
   </si>
 </sst>
 </file>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB1CC0B-B711-5A41-A016-1CB245F92A28}">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="A1:L64"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -748,46 +748,46 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L2" s="2">
         <v>10930666</v>
@@ -795,35 +795,35 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L3" s="2">
         <v>10930666</v>
@@ -831,35 +831,35 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L4" s="2">
         <v>21136127</v>
@@ -867,287 +867,287 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2">
         <v>2012</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2">
         <v>2009</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2">
         <v>2008</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2">
         <v>2008</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2">
         <v>2016</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2">
         <v>2015</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L12" s="2">
         <v>32059508</v>
@@ -1155,179 +1155,179 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2">
         <v>2015</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2">
         <v>2017</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2">
         <v>2017</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2">
         <v>2017</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L17" s="2">
         <v>9445039</v>
@@ -1335,71 +1335,71 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L19" s="2">
         <v>9420249</v>
@@ -1407,35 +1407,35 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L20" s="2">
         <v>11038386</v>
@@ -1443,35 +1443,35 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L21" s="2">
         <v>16932982</v>
@@ -1479,35 +1479,35 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L22" s="2">
         <v>16932982</v>
@@ -1515,35 +1515,35 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L23" s="2">
         <v>21136127</v>
@@ -1551,35 +1551,35 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L24" s="2">
         <v>21136127</v>
@@ -1587,35 +1587,35 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L25" s="2">
         <v>21136127</v>
@@ -1623,35 +1623,35 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L26" s="2">
         <v>21136127</v>
@@ -1659,35 +1659,35 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L27" s="2">
         <v>21136127</v>
@@ -1695,35 +1695,35 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L28" s="2">
         <v>21136127</v>
@@ -1731,35 +1731,35 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L29" s="2">
         <v>21136127</v>
@@ -1767,35 +1767,35 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L30" s="2">
         <v>21136127</v>
@@ -1803,35 +1803,35 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L31" s="2">
         <v>21136127</v>
@@ -1839,35 +1839,35 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L32" s="2">
         <v>21136127</v>
@@ -1875,35 +1875,35 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L33" s="2">
         <v>21136127</v>
@@ -1911,35 +1911,35 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L34" s="2">
         <v>21136127</v>
@@ -1947,35 +1947,35 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L35" s="2">
         <v>21136127</v>
@@ -1983,35 +1983,35 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L36" s="2">
         <v>21136127</v>
@@ -2019,35 +2019,35 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L37" s="2">
         <v>21136127</v>
@@ -2055,35 +2055,35 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L38" s="2">
         <v>21136127</v>
@@ -2091,35 +2091,35 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L39" s="2">
         <v>21136127</v>
@@ -2127,35 +2127,35 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L40" s="2">
         <v>21136127</v>
@@ -2163,35 +2163,35 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L41" s="2">
         <v>21136127</v>
@@ -2199,35 +2199,35 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L42" s="2">
         <v>21136127</v>
@@ -2235,35 +2235,35 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L43" s="2">
         <v>21136127</v>
@@ -2271,35 +2271,35 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L44" s="2">
         <v>21136127</v>
@@ -2307,35 +2307,35 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L45" s="2">
         <v>21136127</v>
@@ -2343,35 +2343,35 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L46" s="2">
         <v>21136127</v>
@@ -2379,35 +2379,35 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L47" s="2">
         <v>21136127</v>
@@ -2415,35 +2415,35 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L48" s="2">
         <v>21136127</v>
@@ -2451,35 +2451,35 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L49" s="2">
         <v>21136127</v>
@@ -2487,35 +2487,35 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2">
         <v>2011</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L50" s="2">
         <v>23100364</v>
@@ -2523,35 +2523,35 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2">
         <v>2006</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L51" s="2">
         <v>23175240</v>
@@ -2559,35 +2559,35 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2">
         <v>2006</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L52" s="2">
         <v>23175240</v>
@@ -2595,35 +2595,35 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2">
         <v>2006</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L53" s="2">
         <v>23175240</v>
@@ -2631,35 +2631,35 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2">
         <v>2006</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L54" s="2">
         <v>23175240</v>
@@ -2667,71 +2667,71 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L56" s="2">
         <v>1318398</v>
@@ -2739,107 +2739,107 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2">
         <v>1975</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2">
         <v>2010</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2">
         <v>2014</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L59" s="2">
         <v>31493650</v>
@@ -2847,35 +2847,35 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2">
         <v>2014</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L60" s="2">
         <v>31493650</v>
@@ -2883,35 +2883,35 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2">
         <v>2015</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L61" s="2">
         <v>32059508</v>
@@ -2919,107 +2919,107 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2">
         <v>2014</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L64" s="2">
         <v>8113766</v>

--- a/tabular/extension/equine/eiav-refseqs.xlsx
+++ b/tabular/extension/equine/eiav-refseqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/retrovirus/Lentivirus-GLUE-EIAV/tabular/extension/equine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E3E3C2-CA34-6646-9911-8E4F5059E2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF85BC44-A763-D747-BD5E-3022647AA539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20220" yWindow="11440" windowWidth="26440" windowHeight="15440" xr2:uid="{8A17B564-60DB-FE41-AABC-5E28301F4D87}"/>
+    <workbookView xWindow="6180" yWindow="500" windowWidth="30140" windowHeight="26540" xr2:uid="{8A17B564-60DB-FE41-AABC-5E28301F4D87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -708,13 +708,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB1CC0B-B711-5A41-A016-1CB245F92A28}">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="14.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="10.83203125" style="3"/>
     <col min="11" max="11" width="19.5" style="3" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" style="3"/>
   </cols>
@@ -831,7 +833,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -846,7 +848,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>16</v>
@@ -855,19 +857,19 @@
         <v>17</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>11</v>
+      <c r="J4" s="2">
+        <v>2009</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="2">
-        <v>21136127</v>
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -882,7 +884,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>16</v>
@@ -891,11 +893,11 @@
         <v>17</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>11</v>
+      <c r="J5" s="2">
+        <v>2008</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>11</v>
@@ -903,7 +905,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -918,7 +920,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>16</v>
@@ -927,11 +929,11 @@
         <v>17</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>11</v>
+      <c r="J6" s="2">
+        <v>2008</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>11</v>
@@ -939,7 +941,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
@@ -954,7 +956,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>16</v>
@@ -964,10 +966,10 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>11</v>
@@ -975,7 +977,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
@@ -999,19 +1001,19 @@
         <v>17</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2">
-        <v>2009</v>
+      <c r="J8" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
+      </c>
+      <c r="L8" s="2">
+        <v>9445039</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
@@ -1035,11 +1037,11 @@
         <v>17</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="2">
-        <v>2008</v>
+      <c r="J9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>11</v>
@@ -1047,7 +1049,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -1071,19 +1073,19 @@
         <v>17</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="2">
-        <v>2008</v>
+      <c r="J10" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="L10" s="2">
+        <v>9420249</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
@@ -1107,19 +1109,19 @@
         <v>17</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="2">
-        <v>2016</v>
+      <c r="J11" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="L11" s="2">
+        <v>11038386</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
@@ -1134,7 +1136,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>16</v>
@@ -1143,19 +1145,19 @@
         <v>17</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="2">
-        <v>2015</v>
+      <c r="J12" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="2">
-        <v>32059508</v>
+        <v>11</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
@@ -1170,7 +1172,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>16</v>
@@ -1179,19 +1181,19 @@
         <v>17</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="2">
-        <v>2015</v>
+      <c r="J13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1318398</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -1206,7 +1208,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>16</v>
@@ -1215,11 +1217,11 @@
         <v>17</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="2">
-        <v>2017</v>
+      <c r="J14" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>11</v>
@@ -1227,7 +1229,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
@@ -1242,7 +1244,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>16</v>
@@ -1251,19 +1253,19 @@
         <v>17</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2">
-        <v>2017</v>
+      <c r="J15" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="L15" s="2">
+        <v>8113766</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>13</v>
@@ -1278,7 +1280,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>16</v>
@@ -1287,19 +1289,19 @@
         <v>17</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="2">
-        <v>2017</v>
+      <c r="J16" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="L16" s="2">
+        <v>21136127</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>13</v>
@@ -1314,7 +1316,7 @@
         <v>15</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>16</v>
@@ -1327,15 +1329,15 @@
         <v>11</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="L17" s="2">
-        <v>9445039</v>
+        <v>16932982</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>13</v>
@@ -1350,7 +1352,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>16</v>
@@ -1365,13 +1367,13 @@
       <c r="K18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>11</v>
+      <c r="L18" s="2">
+        <v>16932982</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>13</v>
@@ -1386,7 +1388,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>16</v>
@@ -1399,15 +1401,15 @@
         <v>11</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L19" s="2">
-        <v>9420249</v>
+        <v>21136127</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
@@ -1422,7 +1424,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>16</v>
@@ -1435,15 +1437,15 @@
         <v>11</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L20" s="2">
-        <v>11038386</v>
+        <v>21136127</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>13</v>
@@ -1471,15 +1473,15 @@
         <v>11</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L21" s="2">
-        <v>16932982</v>
+        <v>21136127</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>13</v>
@@ -1507,15 +1509,15 @@
         <v>11</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L22" s="2">
-        <v>16932982</v>
+        <v>21136127</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>13</v>
@@ -1551,7 +1553,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>13</v>
@@ -1587,7 +1589,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>13</v>
@@ -1623,7 +1625,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>13</v>
@@ -1659,7 +1661,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>13</v>
@@ -1695,7 +1697,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -1731,7 +1733,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>13</v>
@@ -1767,7 +1769,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>13</v>
@@ -1803,7 +1805,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>13</v>
@@ -1839,7 +1841,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>13</v>
@@ -1875,7 +1877,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>13</v>
@@ -1911,7 +1913,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>13</v>
@@ -1947,7 +1949,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>13</v>
@@ -1983,7 +1985,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>13</v>
@@ -2019,7 +2021,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>13</v>
@@ -2055,7 +2057,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>13</v>
@@ -2091,7 +2093,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>13</v>
@@ -2127,7 +2129,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>13</v>
@@ -2163,7 +2165,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>13</v>
@@ -2199,7 +2201,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>13</v>
@@ -2235,7 +2237,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>13</v>
@@ -2271,7 +2273,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>13</v>
@@ -2307,7 +2309,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>13</v>
@@ -2343,7 +2345,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>13</v>
@@ -2367,19 +2369,19 @@
         <v>17</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
+      <c r="J46" s="2">
+        <v>2011</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="L46" s="2">
-        <v>21136127</v>
+        <v>23100364</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>13</v>
@@ -2394,7 +2396,7 @@
         <v>15</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>16</v>
@@ -2403,19 +2405,19 @@
         <v>17</v>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
+      <c r="J47" s="2">
+        <v>2015</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L47" s="2">
-        <v>21136127</v>
+        <v>32059508</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>13</v>
@@ -2430,7 +2432,7 @@
         <v>15</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>16</v>
@@ -2439,19 +2441,19 @@
         <v>17</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
+      <c r="J48" s="2">
+        <v>2015</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L48" s="2">
-        <v>21136127</v>
+        <v>32059508</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>13</v>
@@ -2466,7 +2468,7 @@
         <v>15</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>16</v>
@@ -2475,19 +2477,19 @@
         <v>17</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="2" t="s">
-        <v>11</v>
+      <c r="J49" s="2">
+        <v>2014</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L49" s="2">
-        <v>21136127</v>
+        <v>37</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>13</v>
@@ -2502,7 +2504,7 @@
         <v>15</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>16</v>
@@ -2511,19 +2513,19 @@
         <v>17</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="2">
-        <v>2011</v>
+      <c r="J50" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L50" s="2">
-        <v>23100364</v>
+        <v>27</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>13</v>
@@ -2547,19 +2549,19 @@
         <v>17</v>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="2">
-        <v>2006</v>
+      <c r="J51" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L51" s="2">
-        <v>23175240</v>
+        <v>27</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>13</v>
@@ -2595,7 +2597,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>13</v>
@@ -2631,7 +2633,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>13</v>
@@ -2667,7 +2669,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>13</v>
@@ -2682,7 +2684,7 @@
         <v>15</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>16</v>
@@ -2691,19 +2693,19 @@
         <v>17</v>
       </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="2" t="s">
-        <v>11</v>
+      <c r="J55" s="2">
+        <v>2006</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
+      </c>
+      <c r="L55" s="2">
+        <v>23175240</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>13</v>
@@ -2718,7 +2720,7 @@
         <v>15</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>16</v>
@@ -2727,19 +2729,19 @@
         <v>17</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="2" t="s">
-        <v>11</v>
+      <c r="J56" s="2">
+        <v>2010</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L56" s="2">
-        <v>1318398</v>
+        <v>30</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>13</v>
@@ -2754,7 +2756,7 @@
         <v>15</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>16</v>
@@ -2764,18 +2766,18 @@
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2">
-        <v>1975</v>
+        <v>2014</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>11</v>
+        <v>89</v>
+      </c>
+      <c r="L57" s="2">
+        <v>31493650</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>13</v>
@@ -2790,7 +2792,7 @@
         <v>15</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>16</v>
@@ -2800,10 +2802,10 @@
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>11</v>
@@ -2811,7 +2813,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>13</v>
@@ -2836,18 +2838,18 @@
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2">
-        <v>2014</v>
+        <v>1975</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L59" s="2">
-        <v>31493650</v>
+        <v>30</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>13</v>
@@ -2862,7 +2864,7 @@
         <v>15</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>16</v>
@@ -2883,7 +2885,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>13</v>
@@ -2898,7 +2900,7 @@
         <v>15</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>16</v>
@@ -2908,18 +2910,18 @@
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L61" s="2">
-        <v>32059508</v>
+        <v>42</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>13</v>
@@ -2934,7 +2936,7 @@
         <v>15</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>16</v>
@@ -2943,11 +2945,11 @@
         <v>17</v>
       </c>
       <c r="I62" s="2"/>
-      <c r="J62" s="2" t="s">
-        <v>11</v>
+      <c r="J62" s="2">
+        <v>2017</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>11</v>
@@ -2955,7 +2957,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>13</v>
@@ -2970,7 +2972,7 @@
         <v>15</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>16</v>
@@ -2980,10 +2982,10 @@
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>11</v>
@@ -2991,7 +2993,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>13</v>
@@ -3006,7 +3008,7 @@
         <v>15</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>16</v>
@@ -3015,17 +3017,20 @@
         <v>17</v>
       </c>
       <c r="I64" s="2"/>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
+      <c r="J64" s="2">
+        <v>2012</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L64" s="2">
-        <v>8113766</v>
+        <v>30</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L64">
+    <sortCondition ref="F2:F64"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/tabular/extension/equine/eiav-refseqs.xlsx
+++ b/tabular/extension/equine/eiav-refseqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/retrovirus/Lentivirus-GLUE-EIAV/tabular/extension/equine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF85BC44-A763-D747-BD5E-3022647AA539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600FA490-F3F8-2F48-B327-5255C63A340F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6180" yWindow="500" windowWidth="30140" windowHeight="26540" xr2:uid="{8A17B564-60DB-FE41-AABC-5E28301F4D87}"/>
   </bookViews>
@@ -709,7 +709,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1048576"/>
+      <selection activeCell="L1" sqref="A1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -833,7 +833,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -857,19 +857,19 @@
         <v>17</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2">
-        <v>2009</v>
+      <c r="J4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
+      </c>
+      <c r="L4" s="2">
+        <v>9445039</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -893,11 +893,11 @@
         <v>17</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2">
-        <v>2008</v>
+      <c r="J5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>11</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -929,19 +929,19 @@
         <v>17</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2">
-        <v>2008</v>
+      <c r="J6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="L6" s="2">
+        <v>9420249</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
@@ -965,19 +965,19 @@
         <v>17</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2">
-        <v>2016</v>
+      <c r="J7" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="L7" s="2">
+        <v>11038386</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
@@ -992,7 +992,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>16</v>
@@ -1005,15 +1005,15 @@
         <v>11</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="L8" s="2">
-        <v>9445039</v>
+        <v>16932982</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
@@ -1028,7 +1028,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>16</v>
@@ -1043,13 +1043,13 @@
       <c r="K9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>11</v>
+      <c r="L9" s="2">
+        <v>16932982</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -1064,7 +1064,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>16</v>
@@ -1077,15 +1077,15 @@
         <v>11</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L10" s="2">
-        <v>9420249</v>
+        <v>21136127</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
@@ -1100,7 +1100,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>16</v>
@@ -1113,15 +1113,15 @@
         <v>11</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L11" s="2">
-        <v>11038386</v>
+        <v>21136127</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
@@ -1136,7 +1136,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>16</v>
@@ -1149,15 +1149,15 @@
         <v>11</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="L12" s="2">
+        <v>21136127</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
@@ -1172,7 +1172,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>16</v>
@@ -1185,15 +1185,15 @@
         <v>11</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L13" s="2">
-        <v>1318398</v>
+        <v>21136127</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -1208,7 +1208,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>16</v>
@@ -1221,15 +1221,15 @@
         <v>11</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="L14" s="2">
+        <v>21136127</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
@@ -1244,7 +1244,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>16</v>
@@ -1257,15 +1257,15 @@
         <v>11</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L15" s="2">
-        <v>8113766</v>
+        <v>21136127</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>13</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>13</v>
@@ -1329,15 +1329,15 @@
         <v>11</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L17" s="2">
-        <v>16932982</v>
+        <v>21136127</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>13</v>
@@ -1365,15 +1365,15 @@
         <v>11</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L18" s="2">
-        <v>16932982</v>
+        <v>21136127</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>13</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>13</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>13</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>13</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>13</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>13</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>13</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>13</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>13</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>13</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>13</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>13</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>13</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>13</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>13</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>13</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>13</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>13</v>
@@ -2081,19 +2081,19 @@
         <v>17</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
+      <c r="J38" s="2">
+        <v>2011</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="L38" s="2">
-        <v>21136127</v>
+        <v>23100364</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>13</v>
@@ -2108,7 +2108,7 @@
         <v>15</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>16</v>
@@ -2117,19 +2117,19 @@
         <v>17</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="2" t="s">
-        <v>11</v>
+      <c r="J39" s="2">
+        <v>2006</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="L39" s="2">
-        <v>21136127</v>
+        <v>23175240</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>13</v>
@@ -2144,7 +2144,7 @@
         <v>15</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>16</v>
@@ -2153,19 +2153,19 @@
         <v>17</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
+      <c r="J40" s="2">
+        <v>2006</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="L40" s="2">
-        <v>21136127</v>
+        <v>23175240</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>13</v>
@@ -2180,7 +2180,7 @@
         <v>15</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>16</v>
@@ -2189,19 +2189,19 @@
         <v>17</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
+      <c r="J41" s="2">
+        <v>2006</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="L41" s="2">
-        <v>21136127</v>
+        <v>23175240</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>13</v>
@@ -2216,7 +2216,7 @@
         <v>15</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>16</v>
@@ -2225,19 +2225,19 @@
         <v>17</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="2" t="s">
-        <v>11</v>
+      <c r="J42" s="2">
+        <v>2006</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="L42" s="2">
-        <v>21136127</v>
+        <v>23175240</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>13</v>
@@ -2252,7 +2252,7 @@
         <v>15</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>16</v>
@@ -2265,15 +2265,15 @@
         <v>11</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" s="2">
-        <v>21136127</v>
+        <v>27</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>13</v>
@@ -2288,7 +2288,7 @@
         <v>15</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>16</v>
@@ -2301,15 +2301,15 @@
         <v>11</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L44" s="2">
-        <v>21136127</v>
+        <v>27</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>13</v>
@@ -2324,7 +2324,7 @@
         <v>15</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>16</v>
@@ -2337,15 +2337,15 @@
         <v>11</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L45" s="2">
-        <v>21136127</v>
+        <v>11</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>13</v>
@@ -2360,7 +2360,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>16</v>
@@ -2369,19 +2369,19 @@
         <v>17</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="2">
-        <v>2011</v>
+      <c r="J46" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="L46" s="2">
-        <v>23100364</v>
+        <v>1318398</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>13</v>
@@ -2396,7 +2396,7 @@
         <v>15</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>16</v>
@@ -2406,18 +2406,18 @@
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2">
-        <v>2015</v>
+        <v>1975</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L47" s="2">
-        <v>32059508</v>
+        <v>30</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>13</v>
@@ -2432,7 +2432,7 @@
         <v>15</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>16</v>
@@ -2442,18 +2442,18 @@
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L48" s="2">
-        <v>32059508</v>
+        <v>30</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>13</v>
@@ -2468,7 +2468,7 @@
         <v>15</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>16</v>
@@ -2478,10 +2478,10 @@
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>11</v>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>13</v>
@@ -2504,7 +2504,7 @@
         <v>15</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>16</v>
@@ -2513,11 +2513,11 @@
         <v>17</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
+      <c r="J50" s="2">
+        <v>2009</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>11</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>13</v>
@@ -2540,7 +2540,7 @@
         <v>15</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>16</v>
@@ -2549,11 +2549,11 @@
         <v>17</v>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
+      <c r="J51" s="2">
+        <v>2008</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>11</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>13</v>
@@ -2576,7 +2576,7 @@
         <v>15</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>16</v>
@@ -2586,18 +2586,18 @@
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L52" s="2">
-        <v>23175240</v>
+        <v>32</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>13</v>
@@ -2612,7 +2612,7 @@
         <v>15</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>16</v>
@@ -2622,18 +2622,18 @@
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L53" s="2">
-        <v>23175240</v>
+        <v>32</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>13</v>
@@ -2648,7 +2648,7 @@
         <v>15</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>16</v>
@@ -2658,18 +2658,18 @@
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="L54" s="2">
-        <v>23175240</v>
+        <v>31493650</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>13</v>
@@ -2694,18 +2694,18 @@
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="L55" s="2">
-        <v>23175240</v>
+        <v>31493650</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>13</v>
@@ -2720,7 +2720,7 @@
         <v>15</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>16</v>
@@ -2730,18 +2730,18 @@
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="L56" s="2">
+        <v>32059508</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>13</v>
@@ -2756,7 +2756,7 @@
         <v>15</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>16</v>
@@ -2766,13 +2766,13 @@
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="L57" s="2">
-        <v>31493650</v>
+        <v>32059508</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2813,7 +2813,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>13</v>
@@ -2828,7 +2828,7 @@
         <v>15</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>16</v>
@@ -2838,10 +2838,10 @@
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2">
-        <v>1975</v>
+        <v>2017</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>11</v>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>13</v>
@@ -2864,7 +2864,7 @@
         <v>15</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>16</v>
@@ -2874,18 +2874,18 @@
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L60" s="2">
-        <v>31493650</v>
+        <v>42</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>13</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>13</v>
@@ -2936,7 +2936,7 @@
         <v>15</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>16</v>
@@ -2945,11 +2945,11 @@
         <v>17</v>
       </c>
       <c r="I62" s="2"/>
-      <c r="J62" s="2">
-        <v>2017</v>
+      <c r="J62" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>11</v>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>13</v>
@@ -2972,7 +2972,7 @@
         <v>15</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>16</v>
@@ -2982,10 +2982,10 @@
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>11</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>13</v>
@@ -3008,7 +3008,7 @@
         <v>15</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>16</v>
@@ -3017,19 +3017,19 @@
         <v>17</v>
       </c>
       <c r="I64" s="2"/>
-      <c r="J64" s="2">
-        <v>2012</v>
+      <c r="J64" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="L64" s="2">
+        <v>8113766</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L64">
-    <sortCondition ref="F2:F64"/>
+    <sortCondition ref="A2:A64"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
